--- a/1_Result_Tables/6_ifo_qoq_evaluations_ifoCASTset/ifo_qoq_forecast_error_table_first_eval_ifoCASTset.xlsx
+++ b/1_Result_Tables/6_ifo_qoq_evaluations_ifoCASTset/ifo_qoq_forecast_error_table_first_eval_ifoCASTset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02018104092446846</v>
+        <v>0.1263387051840438</v>
       </c>
       <c r="C3">
-        <v>0.2688172681347973</v>
+        <v>0.3641646616460975</v>
       </c>
       <c r="D3">
-        <v>0.1341407020857154</v>
+        <v>0.3918082922282284</v>
       </c>
       <c r="E3">
-        <v>0.3662522383354337</v>
+        <v>0.625945917973932</v>
       </c>
       <c r="F3">
-        <v>0.3743015978239146</v>
+        <v>0.6268419021867003</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1926959782785061</v>
+        <v>0.7173643701084924</v>
       </c>
       <c r="C4">
-        <v>0.2959248741112206</v>
+        <v>0.8116168402166231</v>
       </c>
       <c r="D4">
-        <v>0.1590366544764396</v>
+        <v>4.742135511821281</v>
       </c>
       <c r="E4">
-        <v>0.3987940000507023</v>
+        <v>2.177644487013727</v>
       </c>
       <c r="F4">
-        <v>0.357771100220959</v>
+        <v>2.10230446137915</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1524375026916339</v>
+        <v>0.3243569944388665</v>
       </c>
       <c r="C5">
-        <v>0.2760699732544872</v>
+        <v>1.140585590613996</v>
       </c>
       <c r="D5">
-        <v>0.1118508122514876</v>
+        <v>7.644553728315862</v>
       </c>
       <c r="E5">
-        <v>0.3344410445078289</v>
+        <v>2.764878610050695</v>
       </c>
       <c r="F5">
-        <v>0.3054136453447421</v>
+        <v>2.807497787378002</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2093682271392635</v>
+        <v>0.365601066543519</v>
       </c>
       <c r="C6">
-        <v>0.2911999093144712</v>
+        <v>1.140326086931019</v>
       </c>
       <c r="D6">
-        <v>0.1454041144442906</v>
+        <v>7.622357104580996</v>
       </c>
       <c r="E6">
-        <v>0.3813189143542327</v>
+        <v>2.76086165980496</v>
       </c>
       <c r="F6">
-        <v>0.3274321081680051</v>
+        <v>2.798050767853111</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2956599342085532</v>
+        <v>0.6369576950222359</v>
       </c>
       <c r="C7">
-        <v>0.3644950990437189</v>
+        <v>1.773555024963742</v>
       </c>
       <c r="D7">
-        <v>0.154547602104084</v>
+        <v>12.03425596399146</v>
       </c>
       <c r="E7">
-        <v>0.3931254279540869</v>
+        <v>3.469042514007498</v>
       </c>
       <c r="F7">
-        <v>0.273115371242179</v>
+        <v>3.529752246274835</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2751107458090843</v>
+        <v>0.5160447118266327</v>
       </c>
       <c r="C8">
-        <v>0.3536858078374602</v>
+        <v>1.817060265299929</v>
       </c>
       <c r="D8">
-        <v>0.2325395787701972</v>
+        <v>12.0362455981401</v>
       </c>
       <c r="E8">
-        <v>0.4822235775760008</v>
+        <v>3.469329272084174</v>
       </c>
       <c r="F8">
-        <v>0.4200718549836295</v>
+        <v>3.551148222788933</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,19 +611,68 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4720044792832994</v>
+        <v>-0.05105550657186964</v>
       </c>
       <c r="C9">
-        <v>0.4720044792832994</v>
+        <v>3.541832015114859</v>
       </c>
       <c r="D9">
-        <v>0.2227882284634986</v>
+        <v>28.3892791991018</v>
       </c>
       <c r="E9">
-        <v>0.4720044792832994</v>
+        <v>5.32815908162489</v>
+      </c>
+      <c r="F9">
+        <v>5.836437872642916</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-2.219753352431116</v>
+      </c>
+      <c r="C10">
+        <v>2.563348172737015</v>
+      </c>
+      <c r="D10">
+        <v>17.30024950301405</v>
+      </c>
+      <c r="E10">
+        <v>4.159356861705191</v>
+      </c>
+      <c r="F10">
+        <v>4.061681844980783</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.3277785186027308</v>
+      </c>
+      <c r="C11">
+        <v>0.3684111220090684</v>
+      </c>
+      <c r="D11">
+        <v>0.2431655120773814</v>
+      </c>
+      <c r="E11">
+        <v>0.4931181522489123</v>
+      </c>
+      <c r="F11">
+        <v>0.5210120052743136</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
